--- a/data-result/results-landmarks.xlsx
+++ b/data-result/results-landmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wyw/Documents/Chaper2/github-code/segmentation-3D/data-result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4C805E-BC9F-5A40-93F9-0D4AFB61DDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D61D2B9-448C-204E-A249-0F8C0C5ADA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="1000" windowWidth="23720" windowHeight="14400" xr2:uid="{DC2C7737-52D6-5047-A16C-20FD2471CC6D}"/>
+    <workbookView xWindow="14120" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{DC2C7737-52D6-5047-A16C-20FD2471CC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3381" uniqueCount="2237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3388" uniqueCount="2244">
   <si>
     <t>campaign</t>
   </si>
@@ -6752,6 +6752,34 @@
   </si>
   <si>
     <t>n8</t>
+  </si>
+  <si>
+    <t>AH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2T2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2H</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2H</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6795,7 +6823,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -6818,13 +6846,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6832,6 +6871,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7146,10 +7188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB82CAC-B0AE-524F-8F59-5CDA542BD7C6}">
-  <dimension ref="A1:M276"/>
+  <dimension ref="A1:T276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="D271" sqref="D271"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7165,7 +7207,7 @@
     <col min="13" max="13" width="35.83203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7205,8 +7247,29 @@
       <c r="M1" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="3" t="s">
+        <v>2237</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>2238</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>2239</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>2240</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>2241</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>2242</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7247,7 +7310,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:20">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -7288,7 +7351,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:20">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -7329,7 +7392,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:20">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -7370,7 +7433,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:20">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -7411,7 +7474,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:20">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -7452,7 +7515,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:20">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -7493,7 +7556,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:20">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -7534,7 +7597,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:20">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -7575,7 +7638,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:20">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -7616,7 +7679,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:20">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -7657,7 +7720,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:20">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -7698,7 +7761,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:20">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -7739,7 +7802,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:20">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -7780,7 +7843,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:20">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
